--- a/个人周报/金湖皓/金湖皓-个人周报.xlsx
+++ b/个人周报/金湖皓/金湖皓-个人周报.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\ComputationalBio\6\软件项目管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Github\StyleTransferApplet\个人周报\金湖皓\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A63AF4E-09C5-4CEF-AE51-BA3256091AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D90E2E4-5899-4CA2-A7F0-3AF617388943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第8周工作周报" sheetId="9" r:id="rId1"/>
     <sheet name="第9周工作周报" sheetId="7" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId4"/>
+    <sheet name="第10周工作周报" sheetId="11" r:id="rId3"/>
+    <sheet name="第11周工作周报" sheetId="10" r:id="rId4"/>
+    <sheet name="第12周工作周报" sheetId="12" r:id="rId5"/>
+    <sheet name="第13周工作日报" sheetId="13" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="14" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">第8周工作周报!$A$1:$O$35</definedName>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="104">
   <si>
     <t>本周工作总结</t>
   </si>
@@ -153,10 +156,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>是/否解决</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>小组讨论</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -235,6 +234,218 @@
   <si>
     <t>姓名：金湖皓      组长：林宗莹      日期：2022.4.15</t>
     <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名：金湖皓      组长：林宗莹      日期：2022.4.29</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练模型</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型训练</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.20</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.27</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.30</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型训练困难</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.27</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.7</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细设计</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细设计</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>对部分内容存在疑问</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块设计</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制流程图</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制用例图</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.11</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.14</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作详细设计部分PPT</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.10</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.11</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.17</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.18</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.21</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名：金湖皓      组长：林宗莹      日期：2022.5.13</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘图</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作PPT</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作PPT</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇报</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.20</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.18</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.24</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.25</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.27</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.28</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码编写中遇到问题</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>查资料</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名：金湖皓      组长：林宗莹      日期：2022.5.20</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名：金湖皓      组长：林宗莹      日期：2022.5.8</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.25</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.31</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名：金湖皓      组长：林宗莹      日期：2022.5.27</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改详细设计</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细设计内容有错误</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -661,7 +872,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -988,6 +1199,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
@@ -1117,7 +1341,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1179,9 +1403,117 @@
     <xf numFmtId="9" fontId="32" fillId="24" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="25" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="26" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="27" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="34" fillId="26" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1194,11 +1526,32 @@
     <xf numFmtId="0" fontId="34" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="26" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1215,50 +1568,53 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="25" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="26" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="27" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1273,132 +1629,54 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="13" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="14" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="28" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="26" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="26" borderId="28" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="26" borderId="23" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="34" fillId="26" borderId="17" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="34" fillId="26" borderId="24" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="34" fillId="26" borderId="20" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="32" fillId="24" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1527,72 +1805,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E71D87F5-EFC1-4D2C-9D3E-4F1E532AE786}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9906000" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1894,834 +2106,834 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:K19"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:O35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.59765625" style="3" customWidth="1"/>
     <col min="3" max="3" width="8" style="3" customWidth="1"/>
     <col min="4" max="4" width="36" style="3" customWidth="1"/>
-    <col min="5" max="5" width="4.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="4.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="6.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.19921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.59765625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="4.8984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.09765625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.09765625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="6.59765625" style="3" customWidth="1"/>
     <col min="11" max="11" width="4.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="7.25" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12.875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="6.875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.09765625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="7.19921875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.8984375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.59765625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="6.8984375" style="3" customWidth="1"/>
     <col min="17" max="17" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.75" style="3" customWidth="1"/>
+    <col min="18" max="18" width="26.69921875" style="3" customWidth="1"/>
     <col min="19" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="43"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="28"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="46"/>
+      <c r="A2" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="31"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="47" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="49"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="34"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
       <c r="G4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="51"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="36"/>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="92" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
+      <c r="B5" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
       <c r="G5" s="9">
         <v>1</v>
       </c>
-      <c r="H5" s="94" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="96"/>
+      <c r="H5" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="41"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2</v>
       </c>
-      <c r="B6" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="60"/>
+      <c r="B6" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="10">
         <v>2</v>
       </c>
-      <c r="H6" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="62"/>
+      <c r="H6" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="46"/>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="93" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
+      <c r="B7" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="9">
         <v>3</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="57"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="48"/>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="64" t="s">
+    <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="64" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="66"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="51"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="67" t="s">
+    <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="70"/>
+      <c r="F9" s="54"/>
       <c r="G9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67" t="s">
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67" t="s">
+      <c r="M9" s="52"/>
+      <c r="N9" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="68"/>
+      <c r="O9" s="55"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="76" t="s">
+    <row r="10" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="80">
+      <c r="B10" s="58"/>
+      <c r="C10" s="59">
         <v>4.1100000000000003</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="76">
+      <c r="D10" s="60"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="58">
         <v>1</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25" t="s">
+      <c r="M10" s="56"/>
+      <c r="N10" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="O10" s="77"/>
+      <c r="O10" s="57"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="76"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="77"/>
+    <row r="11" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="57"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="76" t="s">
+    <row r="12" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="80">
+      <c r="B12" s="58"/>
+      <c r="C12" s="59">
         <v>4.12</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="62">
+        <v>0.9</v>
+      </c>
+      <c r="F12" s="63"/>
+      <c r="G12" s="58">
+        <v>2</v>
+      </c>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59">
+        <v>4.13</v>
+      </c>
+      <c r="D14" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="26">
-        <v>0.9</v>
-      </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="76">
-        <v>2</v>
-      </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="76"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="76" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="80">
-        <v>4.13</v>
-      </c>
-      <c r="D14" s="30" t="s">
+      <c r="E14" s="75"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="58">
+        <v>3</v>
+      </c>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="D16" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="76">
-        <v>3</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="7"/>
-    </row>
-    <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="76"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="7"/>
-    </row>
-    <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="80">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="26">
+      <c r="E16" s="62">
         <v>0.2</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="76">
+      <c r="F16" s="63"/>
+      <c r="G16" s="58">
         <v>4</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="37"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="71"/>
       <c r="P16" s="7"/>
     </row>
-    <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="76"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="39"/>
+    <row r="17" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="74"/>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="76" t="s">
+    <row r="18" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="80">
+      <c r="B18" s="58"/>
+      <c r="C18" s="59">
         <v>4.1500000000000004</v>
       </c>
-      <c r="D18" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="26">
+      <c r="D18" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="62">
         <v>0.5</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="76">
+      <c r="F18" s="63"/>
+      <c r="G18" s="58">
         <v>5</v>
       </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="37"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="71"/>
       <c r="P18" s="7"/>
     </row>
-    <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="76"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="39"/>
+    <row r="19" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="74"/>
       <c r="P19" s="7"/>
     </row>
-    <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="76" t="s">
+    <row r="20" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="80">
+      <c r="B20" s="58"/>
+      <c r="C20" s="59">
         <v>4.16</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="76">
+      <c r="D20" s="60"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="58">
         <v>6</v>
       </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="37"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="71"/>
       <c r="P20" s="7"/>
     </row>
-    <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="76"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="39"/>
+    <row r="21" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="74"/>
       <c r="P21" s="7"/>
     </row>
-    <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="76" t="s">
+    <row r="22" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="80">
+      <c r="B22" s="58"/>
+      <c r="C22" s="59">
         <v>4.17</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="76">
+      <c r="D22" s="60"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="58">
         <v>7</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="37"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="71"/>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="76"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="39"/>
+    <row r="23" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="74"/>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="64" t="s">
+    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
       <c r="O24" s="12"/>
       <c r="P24" s="7"/>
     </row>
-    <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="79" t="s">
+    <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79" t="s">
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
       <c r="N25" s="19" t="s">
         <v>23</v>
       </c>
       <c r="O25" s="14"/>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="73" t="s">
+    <row r="26" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="73"/>
+      <c r="B26" s="83"/>
       <c r="C26" s="20">
         <v>4.18</v>
       </c>
-      <c r="D26" s="97" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="98"/>
+      <c r="D26" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
       <c r="N26" s="15"/>
       <c r="O26" s="12"/>
       <c r="P26" s="7"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="71" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="71"/>
+      <c r="B27" s="81"/>
       <c r="C27" s="21">
         <v>4.1900000000000004</v>
       </c>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
       <c r="N27" s="16"/>
       <c r="O27" s="17"/>
       <c r="P27" s="7"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="73" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="73"/>
+      <c r="B28" s="83"/>
       <c r="C28" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="97" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="98"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="98"/>
+      <c r="D28" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
       <c r="N28" s="15"/>
       <c r="O28" s="12"/>
       <c r="P28" s="7"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="71" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="71"/>
+      <c r="B29" s="81"/>
       <c r="C29" s="21">
         <v>4.21</v>
       </c>
-      <c r="D29" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
+      <c r="D29" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
       <c r="N29" s="23"/>
       <c r="O29" s="17"/>
       <c r="P29" s="7"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="73" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="73"/>
+      <c r="B30" s="83"/>
       <c r="C30" s="20">
         <v>4.22</v>
       </c>
-      <c r="D30" s="78"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
       <c r="N30" s="24"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="71" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="71"/>
+      <c r="B31" s="81"/>
       <c r="C31" s="21">
         <v>4.2300000000000004</v>
       </c>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
       <c r="P31" s="7"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="73" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="73"/>
+      <c r="B32" s="83"/>
       <c r="C32" s="20">
         <v>4.24</v>
       </c>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
       <c r="N32" s="15"/>
       <c r="O32" s="12"/>
       <c r="P32" s="7"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="90" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="90"/>
-      <c r="O33" s="91"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="88"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="85" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="86"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="86"/>
-      <c r="N34" s="86"/>
-      <c r="O34" s="87"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="90"/>
+      <c r="O34" s="91"/>
       <c r="P34" s="7"/>
     </row>
-    <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="88"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="89"/>
+    <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="92"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="93"/>
       <c r="P35" s="7"/>
     </row>
-    <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2738,38 +2950,78 @@
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C39" s="7"/>
       <c r="D39" s="18"/>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D40" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:K15"/>
     <mergeCell ref="L10:M11"/>
     <mergeCell ref="N10:O11"/>
     <mergeCell ref="A12:B13"/>
@@ -2786,6 +3038,1883 @@
     <mergeCell ref="E10:F11"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:K11"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+  </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
+  <pageSetup paperSize="9" scale="95" firstPageNumber="4294963191" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R40"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.19921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.59765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8" style="3" customWidth="1"/>
+    <col min="4" max="4" width="36" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.19921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.59765625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="4.8984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.09765625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.09765625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="6.59765625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="4.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.09765625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="7.19921875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.8984375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.59765625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="6.8984375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.69921875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="9" style="3" bestFit="1"/>
+    <col min="20" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="99" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="10">
+        <v>2</v>
+      </c>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="9">
+        <v>3</v>
+      </c>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="54"/>
+      <c r="G9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="55"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="107">
+        <v>4.18</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="66"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="58">
+        <v>1</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="57"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="58"/>
+      <c r="C12" s="107">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="62"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="58">
+        <v>2</v>
+      </c>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="58"/>
+      <c r="C14" s="109" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="75"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="58">
+        <v>3</v>
+      </c>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="58"/>
+      <c r="C16" s="107">
+        <v>4.21</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="62"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="58">
+        <v>4</v>
+      </c>
+      <c r="H16" s="56"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="107">
+        <v>4.22</v>
+      </c>
+      <c r="D18" s="60"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="58">
+        <v>5</v>
+      </c>
+      <c r="H18" s="56"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="58"/>
+      <c r="C20" s="107">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="D20" s="60"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="58">
+        <v>6</v>
+      </c>
+      <c r="H20" s="56"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="58"/>
+      <c r="C22" s="107">
+        <v>4.24</v>
+      </c>
+      <c r="D22" s="60"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="58">
+        <v>7</v>
+      </c>
+      <c r="H22" s="56"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" s="14"/>
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="83"/>
+      <c r="C26" s="20">
+        <v>4.25</v>
+      </c>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="7"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="81"/>
+      <c r="C27" s="21">
+        <v>4.26</v>
+      </c>
+      <c r="D27" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="83"/>
+      <c r="C28" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="7"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="81"/>
+      <c r="C29" s="21">
+        <v>4.28</v>
+      </c>
+      <c r="D29" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="7"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="83"/>
+      <c r="C30" s="20">
+        <v>4.29</v>
+      </c>
+      <c r="D30" s="86"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="7"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="81"/>
+      <c r="C31" s="102" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="7"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="83"/>
+      <c r="C32" s="20">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="7"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="7"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="90"/>
+      <c r="O34" s="91"/>
+      <c r="P34" s="7"/>
+    </row>
+    <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="92"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="7"/>
+    </row>
+    <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C39" s="7"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D40" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="G16:G17"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
+  <pageSetup paperSize="9" scale="95" firstPageNumber="4294963191" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F9A4E3-4B42-4871-8591-C5F22F8B336F}">
+  <dimension ref="A1:R40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.19921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.59765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8" style="3" customWidth="1"/>
+    <col min="4" max="4" width="36" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.19921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.59765625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="4.8984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.09765625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.09765625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="6.59765625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="4.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.09765625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="7.19921875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.8984375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.59765625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="6.8984375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9" style="3" bestFit="1"/>
+    <col min="18" max="18" width="26.69921875" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="10">
+        <v>2</v>
+      </c>
+      <c r="H6" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="9">
+        <v>3</v>
+      </c>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="54"/>
+      <c r="G9" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="55"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="107">
+        <v>4.25</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="62">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="63"/>
+      <c r="G10" s="58">
+        <v>1</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="57"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="58"/>
+      <c r="C12" s="107">
+        <v>4.26</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="62">
+        <v>0.4</v>
+      </c>
+      <c r="F12" s="63"/>
+      <c r="G12" s="58">
+        <v>2</v>
+      </c>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="58"/>
+      <c r="C14" s="109" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="62">
+        <v>0.6</v>
+      </c>
+      <c r="F14" s="63"/>
+      <c r="G14" s="58">
+        <v>3</v>
+      </c>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="58"/>
+      <c r="C16" s="107">
+        <v>4.28</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="62">
+        <v>0.8</v>
+      </c>
+      <c r="F16" s="63"/>
+      <c r="G16" s="58">
+        <v>4</v>
+      </c>
+      <c r="H16" s="56"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="107">
+        <v>4.29</v>
+      </c>
+      <c r="D18" s="60"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="58">
+        <v>5</v>
+      </c>
+      <c r="H18" s="56"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="58"/>
+      <c r="C20" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="60"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="58">
+        <v>6</v>
+      </c>
+      <c r="H20" s="56"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="58"/>
+      <c r="C22" s="107">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D22" s="60"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="58">
+        <v>7</v>
+      </c>
+      <c r="H22" s="56"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" s="14"/>
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="83"/>
+      <c r="C26" s="20">
+        <v>5.2</v>
+      </c>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="7"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="81"/>
+      <c r="C27" s="21">
+        <v>5.3</v>
+      </c>
+      <c r="D27" s="95"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="83"/>
+      <c r="C28" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="7"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="81"/>
+      <c r="C29" s="21">
+        <v>5.5</v>
+      </c>
+      <c r="D29" s="95"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="7"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="83"/>
+      <c r="C30" s="20">
+        <v>5.6</v>
+      </c>
+      <c r="D30" s="86"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="7"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="81"/>
+      <c r="C31" s="102" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="7"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="83"/>
+      <c r="C32" s="20">
+        <v>5.8</v>
+      </c>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="7"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="7"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="90"/>
+      <c r="O34" s="91"/>
+      <c r="P34" s="7"/>
+    </row>
+    <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="92"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="7"/>
+    </row>
+    <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C39" s="7"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D40" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:K19"/>
     <mergeCell ref="L14:M15"/>
     <mergeCell ref="N14:O15"/>
     <mergeCell ref="A16:B17"/>
@@ -2802,6 +4931,933 @@
     <mergeCell ref="E14:F15"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:K15"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+  </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0557167-F23F-4ACB-80F7-1F56E0916DEA}">
+  <dimension ref="A1:R40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:M27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.19921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.59765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8" style="3" customWidth="1"/>
+    <col min="4" max="4" width="36" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.19921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.59765625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="4.8984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.09765625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.09765625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="6.59765625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="4.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.09765625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="7.19921875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.8984375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.59765625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="6.8984375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9" style="3"/>
+    <col min="18" max="18" width="26.69921875" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="10">
+        <v>2</v>
+      </c>
+      <c r="H6" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="100" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="9">
+        <v>3</v>
+      </c>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="54"/>
+      <c r="G9" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="55"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59">
+        <v>5.2</v>
+      </c>
+      <c r="D10" s="60"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="58">
+        <v>1</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="57"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59">
+        <v>5.3</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="62">
+        <v>1</v>
+      </c>
+      <c r="F12" s="63"/>
+      <c r="G12" s="58">
+        <v>2</v>
+      </c>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="58"/>
+      <c r="C14" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="111">
+        <v>1</v>
+      </c>
+      <c r="F14" s="112"/>
+      <c r="G14" s="58">
+        <v>3</v>
+      </c>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59">
+        <v>5.5</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="62">
+        <v>1</v>
+      </c>
+      <c r="F16" s="63"/>
+      <c r="G16" s="58">
+        <v>4</v>
+      </c>
+      <c r="H16" s="56"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="59">
+        <v>5.6</v>
+      </c>
+      <c r="D18" s="60"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="58">
+        <v>5</v>
+      </c>
+      <c r="H18" s="56"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="58"/>
+      <c r="C20" s="101" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="60"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="58">
+        <v>6</v>
+      </c>
+      <c r="H20" s="56"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="58"/>
+      <c r="C22" s="59">
+        <v>5.8</v>
+      </c>
+      <c r="D22" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="62">
+        <v>0.6</v>
+      </c>
+      <c r="F22" s="63"/>
+      <c r="G22" s="58">
+        <v>7</v>
+      </c>
+      <c r="H22" s="56"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" s="14"/>
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="83"/>
+      <c r="C26" s="20">
+        <v>5.9</v>
+      </c>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="7"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="81"/>
+      <c r="C27" s="102" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="83"/>
+      <c r="C28" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="7"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="81"/>
+      <c r="C29" s="21">
+        <v>5.12</v>
+      </c>
+      <c r="D29" s="95"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="7"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="83"/>
+      <c r="C30" s="20">
+        <v>5.13</v>
+      </c>
+      <c r="D30" s="86"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="7"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="81"/>
+      <c r="C31" s="102" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="7"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="83"/>
+      <c r="C32" s="20">
+        <v>5.15</v>
+      </c>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="7"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="7"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="90"/>
+      <c r="O34" s="91"/>
+      <c r="P34" s="7"/>
+    </row>
+    <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="92"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="7"/>
+    </row>
+    <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C39" s="7"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D40" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:K23"/>
     <mergeCell ref="L18:M19"/>
     <mergeCell ref="N18:O19"/>
     <mergeCell ref="A20:B21"/>
@@ -2818,864 +5874,894 @@
     <mergeCell ref="E18:F19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:K19"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:K23"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="A33:O33"/>
-    <mergeCell ref="A34:O35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
-  <pageSetup paperSize="9" scale="95" firstPageNumber="4294963191" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE6294D-279C-4722-9617-C03DCA802CBC}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.59765625" style="3" customWidth="1"/>
     <col min="3" max="3" width="8" style="3" customWidth="1"/>
     <col min="4" max="4" width="36" style="3" customWidth="1"/>
-    <col min="5" max="5" width="4.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="4.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="6.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.19921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.59765625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="4.8984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.09765625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.09765625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="6.59765625" style="3" customWidth="1"/>
     <col min="11" max="11" width="4.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="7.25" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12.875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="6.875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.75" style="3" customWidth="1"/>
-    <col min="19" max="19" width="9" style="3" bestFit="1"/>
-    <col min="20" max="16384" width="9" style="3"/>
+    <col min="12" max="12" width="9.09765625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="7.19921875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.8984375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.59765625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="6.8984375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9" style="3"/>
+    <col min="18" max="18" width="26.69921875" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="43"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="28"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="46"/>
+      <c r="A2" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="31"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="47" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="49"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="34"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
       <c r="G4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="51"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="36"/>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="54"/>
+      <c r="B5" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
       <c r="G5" s="9">
         <v>1</v>
       </c>
-      <c r="H5" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="57"/>
+      <c r="H5" s="103" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="104"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2</v>
       </c>
-      <c r="B6" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="60"/>
+      <c r="B6" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="10">
         <v>2</v>
       </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="62"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="46"/>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
+      <c r="B7" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
       <c r="G7" s="9">
         <v>3</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="57"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="48"/>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="64" t="s">
+    <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="64" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="66"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="51"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="67" t="s">
+    <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="54"/>
+      <c r="G9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67" t="s">
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67" t="s">
+      <c r="M9" s="52"/>
+      <c r="N9" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="68"/>
+      <c r="O9" s="55"/>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="76" t="s">
+    <row r="10" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="80">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="81"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="76">
+      <c r="B10" s="58"/>
+      <c r="C10" s="59">
+        <v>5.9</v>
+      </c>
+      <c r="D10" s="60"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="58">
         <v>1</v>
       </c>
-      <c r="H10" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" s="77"/>
+      <c r="H10" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" s="57"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="76"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="77"/>
+    <row r="11" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="57"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="76" t="s">
+    <row r="12" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="80">
-        <v>4.12</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="76">
+      <c r="B12" s="58"/>
+      <c r="C12" s="101" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="62">
+        <v>1</v>
+      </c>
+      <c r="F12" s="63"/>
+      <c r="G12" s="58">
         <v>2</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="77"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="57"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="76"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="77"/>
+    <row r="13" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="57"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="76" t="s">
+    <row r="14" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="80">
-        <v>4.13</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="76">
+      <c r="B14" s="58"/>
+      <c r="C14" s="101" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="62"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="58">
         <v>3</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="77"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="57"/>
       <c r="P14" s="7"/>
     </row>
-    <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="76"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="77"/>
+    <row r="15" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="57"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="76" t="s">
+    <row r="16" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="80">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="76">
+      <c r="B16" s="58"/>
+      <c r="C16" s="59">
+        <v>5.12</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="62">
+        <v>0.6</v>
+      </c>
+      <c r="F16" s="63"/>
+      <c r="G16" s="58">
         <v>4</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="37"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="71"/>
       <c r="P16" s="7"/>
     </row>
-    <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="76"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="39"/>
+    <row r="17" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="74"/>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="76" t="s">
+    <row r="18" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="80">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="76">
+      <c r="B18" s="58"/>
+      <c r="C18" s="59">
+        <v>5.13</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="62">
+        <v>1</v>
+      </c>
+      <c r="F18" s="63"/>
+      <c r="G18" s="58">
         <v>5</v>
       </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="37"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="71"/>
       <c r="P18" s="7"/>
     </row>
-    <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="76"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="39"/>
+    <row r="19" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="74"/>
       <c r="P19" s="7"/>
     </row>
-    <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="76" t="s">
+    <row r="20" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="80">
-        <v>4.16</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="76">
+      <c r="B20" s="58"/>
+      <c r="C20" s="101" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="60"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="58">
         <v>6</v>
       </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="37"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="71"/>
       <c r="P20" s="7"/>
     </row>
-    <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="76"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="39"/>
+    <row r="21" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="74"/>
       <c r="P21" s="7"/>
     </row>
-    <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="76" t="s">
+    <row r="22" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="80">
-        <v>4.17</v>
-      </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="76">
+      <c r="B22" s="58"/>
+      <c r="C22" s="59">
+        <v>5.15</v>
+      </c>
+      <c r="D22" s="60"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="58">
         <v>7</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="37"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="71"/>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="76"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="39"/>
+    <row r="23" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="74"/>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="64" t="s">
+    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
       <c r="O24" s="12"/>
       <c r="P24" s="7"/>
     </row>
-    <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="79" t="s">
+    <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79" t="s">
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="19" t="s">
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="26" t="s">
         <v>23</v>
       </c>
       <c r="O25" s="14"/>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="73" t="s">
+    <row r="26" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="73"/>
+      <c r="B26" s="83"/>
       <c r="C26" s="20">
-        <v>4.18</v>
-      </c>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
+        <v>5.16</v>
+      </c>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
       <c r="N26" s="15"/>
       <c r="O26" s="12"/>
       <c r="P26" s="7"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="71" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="71"/>
-      <c r="C27" s="21">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="D27" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
       <c r="N27" s="16"/>
       <c r="O27" s="17"/>
       <c r="P27" s="7"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="73" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="73"/>
+      <c r="B28" s="83"/>
       <c r="C28" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
+        <v>77</v>
+      </c>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
       <c r="N28" s="15"/>
       <c r="O28" s="12"/>
       <c r="P28" s="7"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="71" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="71"/>
+      <c r="B29" s="81"/>
       <c r="C29" s="21">
-        <v>4.21</v>
-      </c>
-      <c r="D29" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
+        <v>5.19</v>
+      </c>
+      <c r="D29" s="95" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
       <c r="N29" s="23"/>
       <c r="O29" s="17"/>
       <c r="P29" s="7"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="73" t="s">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="73"/>
-      <c r="C30" s="20">
-        <v>4.22</v>
-      </c>
-      <c r="D30" s="78"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
       <c r="N30" s="24"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="71" t="s">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="71"/>
-      <c r="C31" s="21">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
       <c r="P31" s="7"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="73" t="s">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="73"/>
+      <c r="B32" s="83"/>
       <c r="C32" s="20">
-        <v>4.24</v>
-      </c>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
+        <v>5.22</v>
+      </c>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
       <c r="N32" s="15"/>
       <c r="O32" s="12"/>
       <c r="P32" s="7"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="90" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="90"/>
-      <c r="O33" s="91"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="88"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="85" t="s">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="86"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="86"/>
-      <c r="N34" s="86"/>
-      <c r="O34" s="87"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="90"/>
+      <c r="O34" s="91"/>
       <c r="P34" s="7"/>
     </row>
-    <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="88"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="89"/>
+    <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="92"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="93"/>
       <c r="P35" s="7"/>
     </row>
-    <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -3692,65 +6778,23 @@
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C39" s="7"/>
       <c r="D39" s="18"/>
       <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D40" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="A33:O33"/>
     <mergeCell ref="A34:O35"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="N12:O13"/>
-    <mergeCell ref="N14:O15"/>
-    <mergeCell ref="N16:O17"/>
-    <mergeCell ref="H16:K17"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="L16:M17"/>
-    <mergeCell ref="A33:O33"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="H12:K13"/>
-    <mergeCell ref="H14:K15"/>
-    <mergeCell ref="N10:O11"/>
-    <mergeCell ref="L12:M13"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="D30:M30"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="H20:K21"/>
-    <mergeCell ref="H22:K23"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="L10:M11"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="D31:M31"/>
     <mergeCell ref="A32:B32"/>
@@ -3761,13 +6805,74 @@
     <mergeCell ref="D28:M28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="D29:M29"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:K11"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="G8:O8"/>
     <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="E9:F9"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="H5:O5"/>
     <mergeCell ref="B6:F6"/>
@@ -3780,64 +6885,1896 @@
     <mergeCell ref="G3:O3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="H4:O4"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="H18:K19"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="H10:K11"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
-  <pageSetup paperSize="9" scale="95" firstPageNumber="4294963191" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="C28" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F9A4E3-4B42-4871-8591-C5F22F8B336F}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0FB928-3865-4261-87CD-C0FCD44EC918}">
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.19921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.59765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8" style="3" customWidth="1"/>
+    <col min="4" max="4" width="36" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.19921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.59765625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="4.8984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.09765625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.09765625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="6.59765625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="4.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.09765625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="7.19921875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.8984375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.59765625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="6.8984375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9" style="3"/>
+    <col min="18" max="18" width="26.69921875" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="103" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="10">
+        <v>2</v>
+      </c>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="9">
+        <v>3</v>
+      </c>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="54"/>
+      <c r="G9" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="55"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="107">
+        <v>5.16</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="62">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="63"/>
+      <c r="G10" s="58">
+        <v>1</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="57"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="58"/>
+      <c r="C12" s="109" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="62">
+        <v>0.3</v>
+      </c>
+      <c r="F12" s="63"/>
+      <c r="G12" s="58">
+        <v>2</v>
+      </c>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="58"/>
+      <c r="C14" s="109" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="60"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="58">
+        <v>3</v>
+      </c>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="58"/>
+      <c r="C16" s="107">
+        <v>5.19</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="62">
+        <v>0.4</v>
+      </c>
+      <c r="F16" s="63"/>
+      <c r="G16" s="58">
+        <v>4</v>
+      </c>
+      <c r="H16" s="56"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="109" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="62">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="63"/>
+      <c r="G18" s="58">
+        <v>5</v>
+      </c>
+      <c r="H18" s="56"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="58"/>
+      <c r="C20" s="109" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="60"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="58">
+        <v>6</v>
+      </c>
+      <c r="H20" s="56"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="58"/>
+      <c r="C22" s="107">
+        <v>5.22</v>
+      </c>
+      <c r="D22" s="60"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="58">
+        <v>7</v>
+      </c>
+      <c r="H22" s="56"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" s="14"/>
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="83"/>
+      <c r="C26" s="20">
+        <v>5.23</v>
+      </c>
+      <c r="D26" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="7"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="81"/>
+      <c r="C27" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="95" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="83"/>
+      <c r="C28" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="7"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="81"/>
+      <c r="C29" s="21">
+        <v>5.26</v>
+      </c>
+      <c r="D29" s="95" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="7"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="83"/>
+      <c r="C30" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="116">
+        <v>0.8</v>
+      </c>
+      <c r="O30" s="12"/>
+      <c r="P30" s="7"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="81"/>
+      <c r="C31" s="102" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="7"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="83"/>
+      <c r="C32" s="20">
+        <v>5.29</v>
+      </c>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="7"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="7"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="90"/>
+      <c r="O34" s="91"/>
+      <c r="P34" s="7"/>
+    </row>
+    <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="92"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="7"/>
+    </row>
+    <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C39" s="7"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D40" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+  </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0557167-F23F-4ACB-80F7-1F56E0916DEA}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C170B00-7848-42DA-93A0-FE27FFCD0387}">
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:O1"/>
+      <selection activeCell="A34" sqref="A34:O35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.19921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.59765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8" style="3" customWidth="1"/>
+    <col min="4" max="4" width="36" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.19921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.59765625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="4.8984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.09765625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.09765625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="6.59765625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="4.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.09765625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="7.19921875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.8984375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.59765625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="6.8984375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9" style="3"/>
+    <col min="18" max="18" width="26.69921875" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="96"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="103"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="10">
+        <v>2</v>
+      </c>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="9">
+        <v>3</v>
+      </c>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="7"/>
+    </row>
+    <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="54"/>
+      <c r="G9" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="55"/>
+      <c r="P9" s="7"/>
+    </row>
+    <row r="10" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59">
+        <v>5.23</v>
+      </c>
+      <c r="D10" s="60"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="58">
+        <v>1</v>
+      </c>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="58"/>
+      <c r="C12" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="60"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="58">
+        <v>2</v>
+      </c>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="58"/>
+      <c r="C14" s="101" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="60"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="58">
+        <v>3</v>
+      </c>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59">
+        <v>5.26</v>
+      </c>
+      <c r="D16" s="60"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="58">
+        <v>4</v>
+      </c>
+      <c r="H16" s="56"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="59">
+        <v>5.27</v>
+      </c>
+      <c r="D18" s="60"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="58">
+        <v>5</v>
+      </c>
+      <c r="H18" s="56"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="58"/>
+      <c r="C20" s="101" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="60"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="58">
+        <v>6</v>
+      </c>
+      <c r="H20" s="56"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="58"/>
+      <c r="C22" s="59">
+        <v>5.29</v>
+      </c>
+      <c r="D22" s="60"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="58">
+        <v>7</v>
+      </c>
+      <c r="H22" s="56"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="7"/>
+    </row>
+    <row r="23" spans="1:16" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" s="14"/>
+      <c r="P25" s="7"/>
+    </row>
+    <row r="26" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="83"/>
+      <c r="C26" s="20">
+        <v>5.3</v>
+      </c>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="7"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="81"/>
+      <c r="C27" s="102" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="95"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="7"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="83"/>
+      <c r="C28" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="7"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="81"/>
+      <c r="C29" s="21">
+        <v>6.2</v>
+      </c>
+      <c r="D29" s="95"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="94"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="7"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="83"/>
+      <c r="C30" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="86"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="7"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="81"/>
+      <c r="C31" s="102" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="7"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="83"/>
+      <c r="C32" s="20">
+        <v>6.5</v>
+      </c>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="7"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="7"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="90"/>
+      <c r="N34" s="90"/>
+      <c r="O34" s="91"/>
+      <c r="P34" s="7"/>
+    </row>
+    <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="92"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="7"/>
+    </row>
+    <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C39" s="7"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D40" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+  </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>